--- a/IEDC_LookupTable_fill/dimensions_data.xlsx
+++ b/IEDC_LookupTable_fill/dimensions_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -40,37 +40,70 @@
     <t>reserve5</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Unity</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Commodity/Good</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Extensions</t>
-  </si>
-  <si>
-    <t>Services</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>physical time</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>chemical elements</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>one, 1</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>country, region, or place</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>resource, material, engineering material</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>product, good, commodity</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>process or activity</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>energy type or carrier</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>scenario, alternative, version</t>
+  </si>
+  <si>
+    <t>extensions</t>
+  </si>
+  <si>
+    <t>units other than mass or energy</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>service flows</t>
   </si>
 </sst>
 </file>
@@ -127,7 +160,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -432,12 +465,12 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H13"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,154 +496,176 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>

--- a/IEDC_LookupTable_fill/dimensions_data.xlsx
+++ b/IEDC_LookupTable_fill/dimensions_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>service flows</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>layer of quantification</t>
   </si>
 </sst>
 </file>
@@ -152,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -462,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,6 +679,17 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
